--- a/src/main/resources/com/sample/DrunkDrivingRule.xlsx
+++ b/src/main/resources/com/sample/DrunkDrivingRule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjin/RHDM/RuleUnit/ruleunit-tutorial/src/main/resources/com/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1421325E-04B8-0A4B-8326-15FC6F655A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E2C5C7-28AD-CC43-B58D-B8BAC3C341D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5700" yWindow="6500" windowWidth="27900" windowHeight="13520" xr2:uid="{A547AE45-4B8A-034A-96D9-C566B23614FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>RuleSet</t>
     <phoneticPr fontId="1"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>お咎めなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Priority</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -267,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,9 +290,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -313,14 +314,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E39C166-D93D-4348-B41A-2C7FA7AB57A5}">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -648,157 +649,167 @@
     <col min="2" max="4" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
     <row r="2" spans="1:7">
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="24">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="24">
       <c r="A8" s="4"/>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="B8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="24">
       <c r="A9" s="4"/>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="24">
-      <c r="A10" s="4"/>
-      <c r="B10" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="24">
-      <c r="A11" s="11" t="s">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="24">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="6">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="24">
-      <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="7">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="24">
-      <c r="A13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="24">
-      <c r="A14" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
